--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67502746-D155-456E-A203-82033A29989F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199579B-82C0-45F4-B88D-21C014FAE18F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>As a developer, I want to research the QT library and Snake gameplay loop.</t>
   </si>
   <si>
-    <t xml:space="preserve">As a developer, I want to build the main gameplay loop to include, snake, level, spawners, scores, loss criteria </t>
-  </si>
-  <si>
     <t>1,2, &amp; 3</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Justyn Adams-Nora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a developer, I want to build the main gameplay loop to include, snake, level, spawners, scores, food, loss criteria </t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,13 +731,13 @@
         <v>14</v>
       </c>
       <c r="M5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="O5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P5" s="8"/>
     </row>
@@ -746,7 +746,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
@@ -771,10 +771,10 @@
         <v>14</v>
       </c>
       <c r="M6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
@@ -787,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -809,10 +809,10 @@
         <v>17</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199579B-82C0-45F4-B88D-21C014FAE18F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC1004-0A9A-4F51-A28F-DFAD75BBA03F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Time Spent</t>
   </si>
@@ -128,6 +128,36 @@
   </si>
   <si>
     <t xml:space="preserve">As a developer, I want to build the main gameplay loop to include, snake, level, spawners, scores, food, loss criteria </t>
+  </si>
+  <si>
+    <t>Sprint 1 Backlog</t>
+  </si>
+  <si>
+    <t>CSC318: Software Engineering Principles</t>
+  </si>
+  <si>
+    <t>Snake Game</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Completed Sprint</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -143,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -204,18 +240,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,6 +333,40 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,6 +401,29 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Team"/>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="Sprint 1 Backlog"/>
+      <sheetName val="Sprint 2 Backlog"/>
+      <sheetName val="Sprint 3 Backlog"/>
+      <sheetName val="Resources"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
@@ -578,332 +729,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AE771-4968-4681-B593-EBB2359D4F15}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>43738</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>43759</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>43738</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>43759</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>70</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>43759</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>43780</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>70</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>43780</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>43801</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>43738</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>43801</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>200</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -921,7 +1072,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F72A8217-04C6-480B-BB0C-254CF85CEE8B}">
           <x14:formula1>
-            <xm:f>'[CSC318 Backlogs example.xlsx]Resources'!#REF!</xm:f>
+            <xm:f>'C:\Users\ztllo\OneDrive\Desktop\[CSC318 Backlogs example.xlsx]Resources'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L5:L9</xm:sqref>
         </x14:dataValidation>
@@ -933,12 +1084,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43507</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
+        <v>43804</v>
+      </c>
+      <c r="F12" s="11">
+        <v>84</v>
+      </c>
+      <c r="G12" s="11">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11">
+        <v>37</v>
+      </c>
+      <c r="J12" s="11">
+        <v>101</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="L7:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9199579B-82C0-45F4-B88D-21C014FAE18F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ED362-2DFD-4FA8-89A8-78C6656D00C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>All Members</t>
   </si>
   <si>
-    <t>Snake Clone</t>
-  </si>
-  <si>
     <t>As a developer, I want to research the QT library and Snake gameplay loop.</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">As a developer, I want to build the main gameplay loop to include, snake, level, spawners, scores, food, loss criteria </t>
+  </si>
+  <si>
+    <t>Snake Clone - Product Backlog</t>
   </si>
 </sst>
 </file>
@@ -210,12 +210,6 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -239,6 +233,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +579,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,316 +594,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="A1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>43738</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>43759</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>30</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="O5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>43738</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>43759</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>70</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43780</v>
+      </c>
+      <c r="G7" s="3">
+        <v>70</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7">
-        <v>43759</v>
-      </c>
-      <c r="F7" s="7">
-        <v>43780</v>
-      </c>
-      <c r="G7" s="5">
-        <v>70</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="N7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>43780</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>43801</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>30</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>43738</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>43801</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>200</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="M9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F72A8217-04C6-480B-BB0C-254CF85CEE8B}">
           <x14:formula1>
-            <xm:f>'[CSC318 Backlogs example.xlsx]Resources'!#REF!</xm:f>
+            <xm:f>'C:\Users\ztllo\OneDrive\Desktop\[CSC318 Backlogs example.xlsx]Resources'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>L5:L9</xm:sqref>
         </x14:dataValidation>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8ED362-2DFD-4FA8-89A8-78C6656D00C4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC1004-0A9A-4F51-A28F-DFAD75BBA03F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Time Spent</t>
   </si>
@@ -109,6 +109,9 @@
     <t>All Members</t>
   </si>
   <si>
+    <t>Snake Clone</t>
+  </si>
+  <si>
     <t>As a developer, I want to research the QT library and Snake gameplay loop.</t>
   </si>
   <si>
@@ -127,7 +130,34 @@
     <t xml:space="preserve">As a developer, I want to build the main gameplay loop to include, snake, level, spawners, scores, food, loss criteria </t>
   </si>
   <si>
-    <t>Snake Clone - Product Backlog</t>
+    <t>Sprint 1 Backlog</t>
+  </si>
+  <si>
+    <t>CSC318: Software Engineering Principles</t>
+  </si>
+  <si>
+    <t>Snake Game</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Completed Sprint</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -143,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -204,11 +240,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -233,11 +333,39 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -273,6 +401,29 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Team"/>
+      <sheetName val="Product Backlog"/>
+      <sheetName val="Sprint 1 Backlog"/>
+      <sheetName val="Sprint 2 Backlog"/>
+      <sheetName val="Sprint 3 Backlog"/>
+      <sheetName val="Resources"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
@@ -578,80 +729,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AE771-4968-4681-B593-EBB2359D4F15}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,12 +852,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -731,22 +882,22 @@
         <v>14</v>
       </c>
       <c r="M5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -771,15 +922,15 @@
         <v>14</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -787,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3">
         <v>2</v>
@@ -809,15 +960,15 @@
         <v>17</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -859,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -933,12 +1084,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+      <c r="J8" s="3">
+        <v>22</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+      <c r="J9" s="3">
+        <v>26</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43507</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F11" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3">
+        <v>13</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="15">
+        <v>43804</v>
+      </c>
+      <c r="F12" s="11">
+        <v>84</v>
+      </c>
+      <c r="G12" s="11">
+        <v>36</v>
+      </c>
+      <c r="H12" s="11">
+        <v>27</v>
+      </c>
+      <c r="I12" s="11">
+        <v>37</v>
+      </c>
+      <c r="J12" s="11">
+        <v>101</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="L7:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC1004-0A9A-4F51-A28F-DFAD75BBA03F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22458262-E27B-46A3-9FA0-6FF928BD5F8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
   <si>
     <t>Time Spent</t>
   </si>
@@ -158,6 +157,42 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Research how to implement QT</t>
+  </si>
+  <si>
+    <t>Research the game loop for snake game</t>
+  </si>
+  <si>
+    <t>Create a Class for the level</t>
+  </si>
+  <si>
+    <t>Create a Class for the snake</t>
+  </si>
+  <si>
+    <t>Create a Class for Food</t>
+  </si>
+  <si>
+    <t>Create a Class for Game loop</t>
+  </si>
+  <si>
+    <t>Create a Class for Score</t>
+  </si>
+  <si>
+    <t>Create a Class for Menu</t>
+  </si>
+  <si>
+    <t>Start implementing QT library</t>
+  </si>
+  <si>
+    <t>Start Creating grahpical interface</t>
+  </si>
+  <si>
+    <t>Start adding in sprites</t>
+  </si>
+  <si>
+    <t>Start adding in buttons</t>
   </si>
 </sst>
 </file>
@@ -173,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,12 +242,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -333,7 +362,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -385,29 +413,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Team"/>
-      <sheetName val="Product Backlog"/>
-      <sheetName val="Sprint 1 Backlog"/>
-      <sheetName val="Sprint 2 Backlog"/>
-      <sheetName val="Sprint 3 Backlog"/>
-      <sheetName val="Resources"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -729,80 +734,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AE771-4968-4681-B593-EBB2359D4F15}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -852,7 +857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -892,7 +897,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -930,7 +935,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -968,7 +973,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1084,29 +1089,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.21875" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1122,95 +1126,95 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1244,43 +1248,37 @@
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="5">
         <v>43738</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3">
-        <v>22</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1290,43 +1288,37 @@
       <c r="M8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="5">
         <v>43738</v>
       </c>
       <c r="F9" s="3">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3">
-        <v>7</v>
-      </c>
-      <c r="I9" s="3">
         <v>10</v>
       </c>
-      <c r="J9" s="3">
-        <v>26</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>28</v>
@@ -1338,135 +1330,375 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>43507</v>
+        <v>43738</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>43759</v>
+        <v>43738</v>
       </c>
       <c r="F11" s="3">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3">
-        <v>13</v>
-      </c>
-      <c r="J11" s="3">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F17" s="3">
+        <v>15</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="15">
-        <v>43804</v>
-      </c>
-      <c r="F12" s="11">
-        <v>84</v>
-      </c>
-      <c r="G12" s="11">
-        <v>36</v>
-      </c>
-      <c r="H12" s="11">
-        <v>27</v>
-      </c>
-      <c r="I12" s="11">
-        <v>37</v>
-      </c>
-      <c r="J12" s="11">
-        <v>101</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="E20" s="14">
+        <v>43738</v>
+      </c>
+      <c r="F20" s="11">
+        <v>85</v>
+      </c>
+      <c r="G20" s="11">
+        <v>15</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N20" s="13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\Final-Project-C-II\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22458262-E27B-46A3-9FA0-6FF928BD5F8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554B937-E3B4-4A79-ADE8-7A0B460638DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
   <si>
     <t>Time Spent</t>
   </si>
@@ -193,13 +193,25 @@
   </si>
   <si>
     <t>Start adding in buttons</t>
+  </si>
+  <si>
+    <t>Risk Management</t>
+  </si>
+  <si>
+    <t>Issue#</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Solution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +219,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,6 +269,17 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -334,10 +371,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -395,8 +434,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,24 +795,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AE771-4968-4681-B593-EBB2359D4F15}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
@@ -769,7 +832,7 @@
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -787,7 +850,7 @@
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -807,7 +870,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -857,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -897,7 +960,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -935,7 +998,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -973,7 +1036,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1015,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1063,12 +1126,132 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C18:L18"/>
     <mergeCell ref="A1:P2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1089,28 +1272,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" activeCellId="2" sqref="A24 B24 C24:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1126,7 +1309,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
@@ -1144,7 +1327,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
@@ -1162,7 +1345,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>33</v>
       </c>
@@ -1180,7 +1363,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -1196,7 +1379,7 @@
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1397,7 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1254,7 +1437,7 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1292,7 +1475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1330,7 +1513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1362,7 +1545,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1394,7 +1577,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.2</v>
       </c>
@@ -1426,7 +1609,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.2</v>
       </c>
@@ -1460,7 +1643,7 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
@@ -1492,7 +1675,7 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1528,7 +1711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1562,7 +1745,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.3</v>
       </c>
@@ -1596,7 +1779,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1.3</v>
       </c>
@@ -1630,7 +1813,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1.3</v>
       </c>
@@ -1664,7 +1847,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1702,8 +1885,128 @@
         <v>23</v>
       </c>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:N5"/>
@@ -1711,5 +2014,6 @@
     <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\Final-Project-C-II\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8554B937-E3B4-4A79-ADE8-7A0B460638DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954337E7-5505-46D5-95AB-3907085BFC7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Time Spent</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Solution</t>
+  </si>
+  <si>
+    <t>When Finished</t>
   </si>
 </sst>
 </file>
@@ -283,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -370,13 +373,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -404,56 +416,67 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -797,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40AE771-4968-4681-B593-EBB2359D4F15}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
@@ -813,62 +836,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1127,131 +1150,131 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1272,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" activeCellId="2" sqref="A24 B24 C24:L24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,13 +1310,14 @@
     <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="9" width="7.6640625" customWidth="1"/>
     <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.88671875" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" customWidth="1"/>
     <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1309,95 +1333,98 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1429,15 +1456,18 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1462,20 +1492,25 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="37">
+        <v>43740</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1500,20 +1535,23 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="37">
+        <v>43740</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1536,16 +1574,17 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1568,16 +1607,17 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.2</v>
       </c>
@@ -1600,16 +1640,17 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.2</v>
       </c>
@@ -1632,18 +1673,19 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.2</v>
       </c>
@@ -1666,16 +1708,17 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1698,20 +1741,21 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1734,18 +1778,19 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.3</v>
       </c>
@@ -1768,18 +1813,19 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1.3</v>
       </c>
@@ -1802,18 +1848,19 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1.3</v>
       </c>
@@ -1836,18 +1883,19 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="N19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1872,11 +1920,9 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="11"/>
+      <c r="L20" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>23</v>
@@ -1884,122 +1930,130 @@
       <c r="N20" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="O20" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="17">
+        <v>4</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="A23:N23"/>
@@ -2007,11 +2061,6 @@
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
     <mergeCell ref="C27:L27"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\Final-Project-C-II\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954337E7-5505-46D5-95AB-3907085BFC7C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680CF3A-3E18-4D3F-B45D-A70203AC7576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Time Spent</t>
   </si>
@@ -165,36 +165,6 @@
     <t>Research the game loop for snake game</t>
   </si>
   <si>
-    <t>Create a Class for the level</t>
-  </si>
-  <si>
-    <t>Create a Class for the snake</t>
-  </si>
-  <si>
-    <t>Create a Class for Food</t>
-  </si>
-  <si>
-    <t>Create a Class for Game loop</t>
-  </si>
-  <si>
-    <t>Create a Class for Score</t>
-  </si>
-  <si>
-    <t>Create a Class for Menu</t>
-  </si>
-  <si>
-    <t>Start implementing QT library</t>
-  </si>
-  <si>
-    <t>Start Creating grahpical interface</t>
-  </si>
-  <si>
-    <t>Start adding in sprites</t>
-  </si>
-  <si>
-    <t>Start adding in buttons</t>
-  </si>
-  <si>
     <t>Risk Management</t>
   </si>
   <si>
@@ -208,6 +178,33 @@
   </si>
   <si>
     <t>When Finished</t>
+  </si>
+  <si>
+    <t>Start the framework of the board/level by incorporating it into a class</t>
+  </si>
+  <si>
+    <t>Start the framework of the snake by incorporating it into a class</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>Start the framework of the game loop by incorporating it into a class</t>
+  </si>
+  <si>
+    <t>Start the framework of the menu by incorporating it into a class</t>
+  </si>
+  <si>
+    <t>Start implementing QT library to add a GUI to the project</t>
+  </si>
+  <si>
+    <t>Start Creating grahpical interface by using QT</t>
+  </si>
+  <si>
+    <t>Start adding in sprites (food/snake)</t>
+  </si>
+  <si>
+    <t>Start adding in buttons for the menu and GUI</t>
   </si>
 </sst>
 </file>
@@ -417,6 +414,29 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,57 +446,34 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -824,76 +821,76 @@
       <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -943,7 +940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -983,7 +980,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1021,7 +1018,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1059,7 +1056,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1149,132 +1146,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1298,26 +1295,26 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1333,98 +1330,98 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1456,18 +1453,18 @@
         <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1492,7 +1489,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="37">
+      <c r="K8" s="20">
         <v>43740</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1507,10 +1504,10 @@
       <c r="O8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1535,7 +1532,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="37">
+      <c r="K9" s="20">
         <v>43740</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -1551,12 +1548,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -1576,7 +1573,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>29</v>
@@ -1584,12 +1581,12 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1609,7 +1606,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>28</v>
@@ -1617,14 +1614,14 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1.2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -1642,26 +1639,28 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="4">
+        <v>52</v>
+      </c>
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5">
         <v>43738</v>
@@ -1675,22 +1674,24 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="N13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1702,7 +1703,7 @@
         <v>43738</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1710,22 +1711,24 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3">
@@ -1735,7 +1738,7 @@
         <v>43738</v>
       </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1743,36 +1746,34 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="4">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5">
         <v>43738</v>
       </c>
       <c r="F16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1780,7 +1781,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -1790,24 +1791,24 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1.3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5">
         <v>43738</v>
       </c>
       <c r="F17" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1815,7 +1816,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M17" s="6" t="s">
         <v>27</v>
@@ -1825,77 +1826,41 @@
       </c>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="5">
-        <v>43738</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
-      </c>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5">
-        <v>43738</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1934,126 +1899,121 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="17">
+        <v>45</v>
+      </c>
+      <c r="C24" s="26">
         <v>4</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="A23:N23"/>
@@ -2061,6 +2021,11 @@
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
     <mergeCell ref="C27:L27"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680CF3A-3E18-4D3F-B45D-A70203AC7576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83855C1-27BA-495C-A281-E0613C370E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="14028" yWindow="5052" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>Time Spent</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Start adding in buttons for the menu and GUI</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -420,11 +423,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,13 +447,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,11 +477,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -821,76 +825,76 @@
       <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -940,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -980,7 +984,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1018,7 +1022,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1098,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1146,132 +1150,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1292,29 +1296,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1330,7 +1334,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1353,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1372,7 @@
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1391,7 @@
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1401,95 +1405,127 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="18">
+        <v>43740</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="3">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4">
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5">
         <v>43738</v>
       </c>
       <c r="F8" s="3">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>5</v>
-      </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="20">
+      <c r="J8" s="3">
+        <v>15</v>
+      </c>
+      <c r="K8" s="18">
         <v>43740</v>
       </c>
       <c r="L8" s="3" t="s">
@@ -1504,15 +1540,13 @@
       <c r="O8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -1527,35 +1561,33 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="20">
-        <v>43740</v>
+      <c r="K9" s="5">
+        <v>43749</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3">
@@ -1568,27 +1600,35 @@
         <v>5</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
+        <v>10</v>
+      </c>
+      <c r="K10" s="5">
+        <v>43756</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="3">
@@ -1598,45 +1638,61 @@
         <v>43738</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6</v>
+      </c>
+      <c r="J11" s="3">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43756</v>
+      </c>
       <c r="L11" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
         <v>43738</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3" t="s">
         <v>50</v>
@@ -1645,18 +1701,20 @@
         <v>28</v>
       </c>
       <c r="N12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="3">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="3">
@@ -1666,32 +1724,34 @@
         <v>43738</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1707,8 +1767,12 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
         <v>50</v>
@@ -1721,24 +1785,24 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="5">
         <v>43738</v>
       </c>
       <c r="F15" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1756,12 +1820,12 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1791,42 +1855,24 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5">
-        <v>43738</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5</v>
-      </c>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1843,189 +1889,179 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E19" s="14">
         <v>43738</v>
       </c>
-      <c r="F20" s="11">
-        <v>85</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="F19" s="11">
+        <v>110</v>
+      </c>
+      <c r="G19" s="11">
         <v>15</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="3" t="s">
+      <c r="H19" s="11">
+        <v>26</v>
+      </c>
+      <c r="I19" s="11">
+        <v>22</v>
+      </c>
+      <c r="J19" s="11">
+        <v>48</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O19" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C23" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
         <v>5</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="C23:L23"/>
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83855C1-27BA-495C-A281-E0613C370E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C50E1-E054-49CA-81DA-AA014B3CA4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14028" yWindow="5052" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -426,6 +426,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,16 +450,28 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,33 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -825,76 +825,76 @@
       <selection activeCell="A13" sqref="A13:N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -944,7 +944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1150,132 +1150,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1299,26 +1299,26 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1334,64 +1334,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1405,10 +1405,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1445,13 +1445,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1473,8 +1473,12 @@
       <c r="G7" s="3">
         <v>5</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="3">
         <v>5</v>
       </c>
@@ -1493,10 +1497,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1521,7 +1525,9 @@
       <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="3">
         <v>15</v>
       </c>
@@ -1541,7 +1547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1566,8 +1572,12 @@
       <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15</v>
+      </c>
       <c r="K9" s="5">
         <v>43749</v>
       </c>
@@ -1580,7 +1590,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1599,7 +1609,9 @@
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
       <c r="H10" s="3">
         <v>5</v>
       </c>
@@ -1621,7 +1633,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1666,7 +1678,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1685,8 +1697,12 @@
       <c r="F12" s="3">
         <v>15</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
@@ -1707,7 +1723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1726,13 +1742,17 @@
       <c r="F13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
       <c r="I13" s="3">
         <v>3</v>
       </c>
       <c r="J13" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
@@ -1746,7 +1766,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1765,13 +1785,17 @@
       <c r="F14" s="3">
         <v>15</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>6</v>
+      </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
@@ -1785,7 +1809,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1804,10 +1828,18 @@
       <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
         <v>50</v>
@@ -1820,7 +1852,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1839,10 +1871,18 @@
       <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
         <v>50</v>
@@ -1855,7 +1895,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1872,7 +1912,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1889,7 +1929,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -1909,16 +1949,16 @@
         <v>110</v>
       </c>
       <c r="G19" s="11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H19" s="11">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I19" s="11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J19" s="11">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="3" t="s">
@@ -1934,127 +1974,121 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2062,6 +2096,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C50E1-E054-49CA-81DA-AA014B3CA4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EBFD6-72F3-4FA0-A022-C3C82D24AC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2 Backlog" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t>Time Spent</t>
   </si>
@@ -208,6 +209,33 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Sprint 2 Backlog</t>
+  </si>
+  <si>
+    <t>Start the functionality of the board/level by incorporating it into the class</t>
+  </si>
+  <si>
+    <t>Start the functionality of the snake by incorporating it into the class</t>
+  </si>
+  <si>
+    <t>Start the functionality of the game loop by incorporating it into the class</t>
+  </si>
+  <si>
+    <t>Start the functionality of the menu by incorporating it into the class</t>
+  </si>
+  <si>
+    <t>Finish implementing QT library to add a GUI to the project</t>
+  </si>
+  <si>
+    <t>Finish creating grahpical interface by using QT</t>
   </si>
 </sst>
 </file>
@@ -388,7 +416,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -428,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,62 +868,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1151,22 +1182,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1175,93 +1206,93 @@
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1298,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2156A0E-8028-4373-98BC-103EF4FEF8E3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,61 +1366,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1405,8 +1436,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1445,11 +1476,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1497,8 +1528,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1709,9 +1740,11 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="5">
+        <v>43756</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>28</v>
@@ -1754,7 +1787,9 @@
       <c r="J13" s="3">
         <v>15</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>50</v>
       </c>
@@ -1797,7 +1832,9 @@
       <c r="J14" s="3">
         <v>15</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>50</v>
       </c>
@@ -1842,7 +1879,7 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>27</v>
@@ -1885,7 +1922,7 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -1975,22 +2012,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1999,93 +2036,93 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2106,4 +2143,690 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5EE9B2-143D-4149-A7B5-D0F1922FD7D1}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F9" s="3">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F11" s="3">
+        <v>15</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F12" s="3">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F14" s="3">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F15" s="3">
+        <v>15</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>43759</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14">
+        <v>43738</v>
+      </c>
+      <c r="F19" s="11">
+        <v>120</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363EBFD6-72F3-4FA0-A022-C3C82D24AC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AE4E6-7D10-4ED5-8BF7-3581DCEBF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
   <si>
     <t>Time Spent</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>Finish creating grahpical interface by using QT</t>
+  </si>
+  <si>
+    <t>QT was unable to be implemented</t>
+  </si>
+  <si>
+    <t>With the lack of knowledge of implementing QT we decided to drop it and keep the application console based</t>
+  </si>
+  <si>
+    <t>Dropped</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,6 +469,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,13 +490,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,12 +520,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -853,7 +864,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:N13"/>
+      <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,62 +879,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1182,22 +1193,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1206,107 +1217,112 @@
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="B15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1330,7 +1346,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,61 +1382,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1436,8 +1452,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1476,11 +1492,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1528,8 +1544,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2012,22 +2028,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2036,96 +2052,107 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="B24" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2133,12 +2160,6 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2150,7 +2171,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,61 +2203,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2252,8 +2273,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2292,11 +2313,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2505,7 +2526,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>27</v>
@@ -2542,7 +2563,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>27</v>
@@ -2579,7 +2600,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>27</v>
@@ -2616,7 +2637,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -2700,22 +2721,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2724,93 +2745,98 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="B24" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747AE4E6-7D10-4ED5-8BF7-3581DCEBF7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8EE84-D433-4091-B6F4-D2AAE6146357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -469,15 +469,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,12 +482,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,8 +516,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -867,76 +867,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -986,7 +986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1192,137 +1192,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1349,23 +1349,23 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1381,7 +1381,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1400,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1455,7 +1455,7 @@
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1544,10 +1544,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1637,7 +1637,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1965,7 +1965,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1982,7 +1982,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2027,132 +2027,126 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2160,6 +2154,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2171,22 +2171,22 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2202,7 +2202,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>60</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
@@ -2240,7 +2240,7 @@
       <c r="N3" s="33"/>
       <c r="O3" s="33"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>33</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="N4" s="35"/>
       <c r="O4" s="35"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2276,7 +2276,7 @@
       <c r="N5" s="35"/>
       <c r="O5" s="35"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2336,7 +2336,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2353,7 +2353,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2372,13 +2372,23 @@
       <c r="F9" s="3">
         <v>15</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
+      <c r="G9" s="3">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
+        <v>43763</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>29</v>
@@ -2390,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2409,13 +2419,23 @@
       <c r="F10" s="3">
         <v>15</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5">
+        <v>43766</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>28</v>
@@ -2427,7 +2447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2446,13 +2466,23 @@
       <c r="F11" s="3">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5">
+        <v>43770</v>
+      </c>
       <c r="L11" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>28</v>
@@ -2464,7 +2494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2483,13 +2513,23 @@
       <c r="F12" s="3">
         <v>15</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+      <c r="J12" s="3">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5">
+        <v>43775</v>
+      </c>
       <c r="L12" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>28</v>
@@ -2501,7 +2541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2520,11 +2560,21 @@
       <c r="F13" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>69</v>
       </c>
@@ -2538,7 +2588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2557,11 +2607,21 @@
       <c r="F14" s="3">
         <v>15</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>69</v>
       </c>
@@ -2575,7 +2635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2594,11 +2654,21 @@
       <c r="F15" s="3">
         <v>15</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
       <c r="L15" s="3" t="s">
         <v>69</v>
       </c>
@@ -2612,7 +2682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2631,11 +2701,21 @@
       <c r="F16" s="3">
         <v>15</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
       <c r="L16" s="3" t="s">
         <v>69</v>
       </c>
@@ -2649,7 +2729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2666,7 +2746,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2683,7 +2763,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2702,10 +2782,14 @@
       <c r="F19" s="11">
         <v>120</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>30</v>
+      </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="11">
+        <v>57</v>
+      </c>
       <c r="K19" s="11"/>
       <c r="L19" s="3" t="s">
         <v>40</v>
@@ -2720,123 +2804,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8EE84-D433-4091-B6F4-D2AAE6146357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E6FDE-4D1C-42D8-931C-E4725EB29A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
   <si>
     <t>Time Spent</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Start the framework of the snake by incorporating it into a class</t>
   </si>
   <si>
-    <t>On going</t>
-  </si>
-  <si>
     <t>Start the framework of the game loop by incorporating it into a class</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>Summary</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Not Completed</t>
@@ -470,6 +464,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,16 +486,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,12 +514,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,76 +861,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -986,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1026,7 +1020,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1064,7 +1058,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1102,7 +1096,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1144,7 +1138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1192,137 +1186,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1346,26 +1340,26 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1381,64 +1375,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1452,10 +1446,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1492,13 +1486,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1544,10 +1538,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1594,7 +1588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1637,7 +1631,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1680,12 +1674,12 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1725,12 +1719,12 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1772,12 +1766,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -1803,11 +1797,9 @@
       <c r="J13" s="3">
         <v>15</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="K13" s="4"/>
       <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>27</v>
@@ -1817,12 +1809,12 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1848,11 +1840,9 @@
       <c r="J14" s="3">
         <v>15</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>27</v>
@@ -1862,12 +1852,12 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -1895,7 +1885,7 @@
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>27</v>
@@ -1905,12 +1895,12 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1938,7 +1928,7 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -1948,7 +1938,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1965,7 +1955,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1982,7 +1972,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2027,126 +2017,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2154,12 +2150,6 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2171,22 +2161,22 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2202,64 +2192,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2273,10 +2263,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2313,13 +2303,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2336,7 +2326,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2353,12 +2343,12 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -2373,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -2382,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K9" s="5">
         <v>43763</v>
@@ -2400,12 +2390,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -2426,10 +2416,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5">
         <v>43766</v>
@@ -2447,12 +2437,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -2494,12 +2484,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -2517,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K12" s="5">
         <v>43775</v>
@@ -2541,12 +2531,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
@@ -2576,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>27</v>
@@ -2588,12 +2578,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -2623,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>27</v>
@@ -2635,12 +2625,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -2670,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M15" s="6" t="s">
         <v>27</v>
@@ -2682,12 +2672,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -2717,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M16" s="6" t="s">
         <v>27</v>
@@ -2729,7 +2719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2746,7 +2736,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2763,7 +2753,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2783,12 +2773,16 @@
         <v>120</v>
       </c>
       <c r="G19" s="11">
+        <v>15</v>
+      </c>
+      <c r="H19" s="11">
         <v>30</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="11">
+        <v>20</v>
+      </c>
       <c r="J19" s="11">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="3" t="s">
@@ -2804,123 +2798,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110E6FDE-4D1C-42D8-931C-E4725EB29A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0E022-CE9D-4111-BE39-999A1A4E9444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 1 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2 Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 3 Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="68">
   <si>
     <t>Time Spent</t>
   </si>
@@ -419,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,12 +468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,12 +481,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,6 +514,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -861,76 +871,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -980,7 +990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1020,7 +1030,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1058,7 +1068,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1096,7 +1106,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1138,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1186,137 +1196,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1343,23 +1353,23 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1375,7 +1385,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
@@ -1394,7 +1404,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
@@ -1413,7 +1423,7 @@
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
@@ -1432,7 +1442,7 @@
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1449,7 +1459,7 @@
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1502,7 @@
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1538,10 +1548,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1588,7 +1598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1631,7 +1641,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1674,7 +1684,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1719,7 +1729,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1809,7 +1819,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1852,7 +1862,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1895,7 +1905,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1938,7 +1948,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1955,7 +1965,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1972,7 +1982,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2017,132 +2027,126 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2150,6 +2154,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2160,23 +2170,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5EE9B2-143D-4149-A7B5-D0F1922FD7D1}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2192,7 +2202,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>58</v>
       </c>
@@ -2211,7 +2221,7 @@
       <c r="N2" s="33"/>
       <c r="O2" s="33"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
@@ -2230,7 +2240,7 @@
       <c r="N3" s="35"/>
       <c r="O3" s="35"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>33</v>
       </c>
@@ -2249,7 +2259,7 @@
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2266,7 +2276,7 @@
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2309,7 +2319,7 @@
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2326,7 +2336,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2343,7 +2353,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2437,7 +2447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2484,7 +2494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2531,7 +2541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2672,7 +2682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2736,7 +2746,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2753,7 +2763,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2798,123 +2808,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2933,4 +2943,408 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66103E6-81B2-4A20-ACAE-4032999F33B0}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14">
+        <v>43738</v>
+      </c>
+      <c r="F12" s="11">
+        <v>120</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>3.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="A14:N14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0E022-CE9D-4111-BE39-999A1A4E9444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C317A6-7DC7-4B5B-AC55-F8909B474426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
   <si>
     <t>Time Spent</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Dropped</t>
+  </si>
+  <si>
+    <t>Sprint 3 Backlog</t>
   </si>
 </sst>
 </file>
@@ -469,6 +472,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,16 +499,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,17 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -883,62 +886,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1197,22 +1200,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1221,18 +1224,18 @@
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1241,92 +1244,92 @@
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1386,61 +1389,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1456,8 +1459,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1496,11 +1499,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -1548,8 +1551,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -2028,22 +2031,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2052,18 +2055,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2072,81 +2075,87 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2154,12 +2163,6 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2203,61 +2206,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2273,8 +2276,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -2313,11 +2316,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -2809,22 +2812,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
@@ -2833,18 +2836,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -2853,78 +2856,78 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2949,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66103E6-81B2-4A20-ACAE-4032999F33B0}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2966,61 +2969,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="A1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
@@ -3036,8 +3039,8 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
     </row>
     <row r="5" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -3076,11 +3079,11 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -3280,22 +3283,22 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
       <c r="O14" s="22"/>
     </row>
     <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -3305,33 +3308,33 @@
       <c r="B15" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
+      <c r="A16" s="26">
         <v>3.1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
+      <c r="A17" s="26">
         <v>3.2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
+      <c r="A18" s="26">
         <v>3.3</v>
       </c>
     </row>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C317A6-7DC7-4B5B-AC55-F8909B474426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBEA62-E571-477B-8909-7282FBF75C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="75">
   <si>
     <t>Time Spent</t>
   </si>
@@ -243,13 +243,31 @@
   </si>
   <si>
     <t>Sprint 3 Backlog</t>
+  </si>
+  <si>
+    <t>Get movement working for the snake</t>
+  </si>
+  <si>
+    <t>Snake able to eat and grow in length</t>
+  </si>
+  <si>
+    <t>Clean up menu get it implemented</t>
+  </si>
+  <si>
+    <t>Work on game loop specifically end game</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Get score implemented when snake eats (save it if possible)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,8 +289,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +343,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -418,12 +448,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -468,23 +499,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,12 +516,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,10 +550,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,76 +920,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -993,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1033,7 +1079,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1071,7 +1117,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1109,7 +1155,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1151,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1199,137 +1245,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1356,23 +1402,23 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1388,64 +1434,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1459,10 +1505,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1499,13 +1545,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1551,10 +1597,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1601,7 +1647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1644,7 +1690,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1687,7 +1733,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1732,7 +1778,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1779,7 +1825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1822,7 +1868,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1865,7 +1911,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1908,7 +1954,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -1951,7 +1997,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1968,7 +2014,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1985,7 +2031,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2030,132 +2076,126 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2163,6 +2203,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2173,23 +2219,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E5EE9B2-143D-4149-A7B5-D0F1922FD7D1}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2205,64 +2251,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2276,10 +2322,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2316,13 +2362,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2339,7 +2385,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2356,7 +2402,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2403,7 +2449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2450,7 +2496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2497,7 +2543,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2544,7 +2590,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2591,7 +2637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2638,7 +2684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2685,7 +2731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2732,7 +2778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2749,7 +2795,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2766,7 +2812,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2811,123 +2857,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2953,79 +2999,81 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3039,10 +3087,10 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3079,29 +3127,39 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M6" s="6" t="s">
         <v>28</v>
       </c>
@@ -3112,21 +3170,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3.2</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
@@ -3137,21 +3207,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3.3</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M8" s="6" t="s">
         <v>27</v>
       </c>
@@ -3162,21 +3244,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F9" s="3">
+        <v>10</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M9" s="6" t="s">
         <v>29</v>
       </c>
@@ -3187,21 +3281,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+        <v>3.2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M10" s="6" t="s">
         <v>28</v>
       </c>
@@ -3212,21 +3318,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>43780</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="M11" s="6" t="s">
         <v>29</v>
       </c>
@@ -3237,106 +3355,91 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14">
-        <v>43738</v>
-      </c>
-      <c r="F12" s="11">
-        <v>120</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="45">
+        <v>70</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+    </row>
+    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>3.3</v>
-      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tokusunei\Documents\Repository Folder\GitHub\C++\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EBEA62-E571-477B-8909-7282FBF75C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC63570-C48F-4B4F-805E-F5C4B93A75C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
   <si>
     <t>Time Spent</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Get score implemented when snake eats (save it if possible)</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
   </si>
 </sst>
 </file>
@@ -504,6 +510,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,16 +547,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -550,27 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,62 +938,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1246,22 +1252,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1270,18 +1276,18 @@
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1290,92 +1296,92 @@
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1435,61 +1441,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1505,8 +1511,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1545,11 +1551,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1597,8 +1603,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2077,22 +2083,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2101,18 +2107,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2121,81 +2127,87 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2203,12 +2215,6 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2252,61 +2258,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2322,8 +2328,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2362,11 +2368,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2858,22 +2864,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2882,18 +2888,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2902,78 +2908,78 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2998,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66103E6-81B2-4A20-ACAE-4032999F33B0}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,61 +3023,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -3087,8 +3093,8 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3127,11 +3133,11 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3152,13 +3158,15 @@
       <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="20"/>
       <c r="L6" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>28</v>
@@ -3189,13 +3197,15 @@
       <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="20"/>
       <c r="L7" s="3" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>27</v>
@@ -3226,7 +3236,9 @@
       <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -3263,13 +3275,15 @@
       <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="20"/>
       <c r="L9" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>29</v>
@@ -3300,13 +3314,15 @@
       <c r="F10" s="3">
         <v>15</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="20"/>
       <c r="L10" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>28</v>
@@ -3337,7 +3353,9 @@
       <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -3356,77 +3374,77 @@
       </c>
     </row>
     <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="45">
+      <c r="E12" s="28"/>
+      <c r="F12" s="27">
         <v>70</v>
       </c>
-      <c r="G12" s="45">
-        <v>0</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0</v>
-      </c>
-      <c r="J12" s="45">
-        <v>0</v>
-      </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
+      <c r="G12" s="27">
+        <v>8</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
+      <c r="K12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
       <c r="L15" s="50"/>
       <c r="M15" s="50"/>
       <c r="N15" s="50"/>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tokusunei\Documents\Repository Folder\GitHub\C++\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC63570-C48F-4B4F-805E-F5C4B93A75C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE489E9C-DEFE-4028-803A-7F9910A4B0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t>Time Spent</t>
   </si>
@@ -266,7 +266,13 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>In-Progress</t>
+    <t>Still in the Works</t>
+  </si>
+  <si>
+    <t>Making the snake grow</t>
+  </si>
+  <si>
+    <t>Still in the work.</t>
   </si>
 </sst>
 </file>
@@ -525,16 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,12 +543,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,6 +575,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -926,76 +932,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="16" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="16" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1085,7 +1091,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1123,7 +1129,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1161,7 +1167,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1251,137 +1257,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1408,23 +1414,23 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1440,64 +1446,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1511,10 +1517,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1551,13 +1557,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1603,10 +1609,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1696,7 +1702,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1739,7 +1745,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1784,7 +1790,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1874,7 +1880,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1917,7 +1923,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1960,7 +1966,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -2003,7 +2009,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2020,7 +2026,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2037,7 +2043,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2082,132 +2088,126 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2215,6 +2215,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2229,19 +2235,19 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2257,64 +2263,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2328,10 +2334,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2368,13 +2374,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2391,7 +2397,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2408,7 +2414,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2801,7 +2807,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2818,7 +2824,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2863,123 +2869,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3004,82 +3010,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66103E6-81B2-4A20-ACAE-4032999F33B0}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3093,10 +3099,10 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-    </row>
-    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+    </row>
+    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3133,13 +3139,13 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-    </row>
-    <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3.2</v>
       </c>
@@ -3156,14 +3162,20 @@
         <v>43780</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>14</v>
+      </c>
+      <c r="J6" s="3">
+        <v>26</v>
+      </c>
       <c r="K6" s="20"/>
       <c r="L6" s="3" t="s">
         <v>75</v>
@@ -3178,7 +3190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3.2</v>
       </c>
@@ -3195,14 +3207,20 @@
         <v>43780</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>7</v>
+      </c>
+      <c r="J7" s="3">
+        <v>18</v>
+      </c>
       <c r="K7" s="20"/>
       <c r="L7" s="3" t="s">
         <v>76</v>
@@ -3217,7 +3235,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>3.3</v>
       </c>
@@ -3239,12 +3257,18 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12</v>
+      </c>
       <c r="K8" s="20"/>
       <c r="L8" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>27</v>
@@ -3256,7 +3280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3.2</v>
       </c>
@@ -3273,14 +3297,20 @@
         <v>43780</v>
       </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3">
+        <v>17</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3">
+        <v>25</v>
+      </c>
       <c r="K9" s="20"/>
       <c r="L9" s="3" t="s">
         <v>75</v>
@@ -3295,7 +3325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>3.2</v>
       </c>
@@ -3317,9 +3347,15 @@
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16</v>
+      </c>
       <c r="K10" s="20"/>
       <c r="L10" s="3" t="s">
         <v>75</v>
@@ -3334,7 +3370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3.4</v>
       </c>
@@ -3351,17 +3387,23 @@
         <v>43780</v>
       </c>
       <c r="F11" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3">
+        <v>23</v>
+      </c>
       <c r="K11" s="20"/>
       <c r="L11" s="3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>29</v>
@@ -3373,7 +3415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
@@ -3388,19 +3430,19 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="27">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="G12" s="27">
         <v>8</v>
       </c>
       <c r="H12" s="27">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I12" s="27">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J12" s="27">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K12" s="27"/>
       <c r="L12" s="25"/>
@@ -3408,26 +3450,26 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
@@ -3450,13 +3492,21 @@
       <c r="N15" s="50"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
     </row>
   </sheetData>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\source\repos\SnakeGame\SnakeGame\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE489E9C-DEFE-4028-803A-7F9910A4B0CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C734171-2D3C-4B89-93DC-85E44CFA5D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
   <si>
     <t>Time Spent</t>
   </si>
@@ -269,10 +269,13 @@
     <t>Still in the Works</t>
   </si>
   <si>
-    <t>Making the snake grow</t>
-  </si>
-  <si>
-    <t>Still in the work.</t>
+    <t>Making the snake grow when the snake eats food</t>
+  </si>
+  <si>
+    <t>Still in the work, will be wrapped up for final demo</t>
+  </si>
+  <si>
+    <t>Still in the works</t>
   </si>
 </sst>
 </file>
@@ -531,6 +534,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,16 +556,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,12 +584,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -932,76 +935,76 @@
       <selection activeCell="C15" sqref="C15:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="5" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="16" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="16" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1051,7 +1054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1091,7 +1094,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1167,7 +1170,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -1257,137 +1260,137 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1414,23 +1417,23 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1446,64 +1449,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1517,10 +1520,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1557,13 +1560,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1609,10 +1612,10 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1.2</v>
       </c>
@@ -1702,7 +1705,7 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1.2</v>
       </c>
@@ -1745,7 +1748,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1.2</v>
       </c>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1.3</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1.3</v>
       </c>
@@ -1880,7 +1883,7 @@
       </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1.3</v>
       </c>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="O14" s="6"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1.3</v>
       </c>
@@ -1966,7 +1969,7 @@
       </c>
       <c r="O15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.3</v>
       </c>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="O16" s="6"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2026,7 +2029,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2043,7 +2046,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2088,126 +2091,132 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2215,12 +2224,6 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2235,19 +2238,19 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2263,64 +2266,64 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -2334,10 +2337,10 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2374,13 +2377,13 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2397,7 +2400,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2414,7 +2417,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2555,7 +2558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2696,7 +2699,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2807,7 +2810,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2824,7 +2827,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
@@ -2869,123 +2872,123 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3011,81 +3014,81 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -3099,10 +3102,10 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-    </row>
-    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+    </row>
+    <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3139,13 +3142,13 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-    </row>
-    <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3.2</v>
       </c>
@@ -3176,7 +3179,9 @@
       <c r="J6" s="3">
         <v>26</v>
       </c>
-      <c r="K6" s="20"/>
+      <c r="K6" s="20">
+        <v>43795</v>
+      </c>
       <c r="L6" s="3" t="s">
         <v>75</v>
       </c>
@@ -3190,7 +3195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3.2</v>
       </c>
@@ -3221,7 +3226,9 @@
       <c r="J7" s="3">
         <v>18</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>76</v>
       </c>
@@ -3235,7 +3242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>3.3</v>
       </c>
@@ -3266,7 +3273,9 @@
       <c r="J8" s="3">
         <v>12</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>43794</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>75</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>3.2</v>
       </c>
@@ -3311,7 +3320,9 @@
       <c r="J9" s="3">
         <v>25</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20">
+        <v>43790</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>75</v>
       </c>
@@ -3325,7 +3336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3.2</v>
       </c>
@@ -3356,7 +3367,9 @@
       <c r="J10" s="3">
         <v>16</v>
       </c>
-      <c r="K10" s="20"/>
+      <c r="K10" s="20">
+        <v>43796</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>75</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3.4</v>
       </c>
@@ -3401,7 +3414,9 @@
       <c r="J11" s="3">
         <v>23</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20">
+        <v>43796</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>75</v>
       </c>
@@ -3415,7 +3430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>20</v>
       </c>
@@ -3450,26 +3465,26 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>44</v>
       </c>
@@ -3492,7 +3507,7 @@
       <c r="N15" s="50"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>3.2</v>
       </c>
@@ -3503,10 +3518,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
     </row>
   </sheetData>

--- a/SnakeGame/Documents/Backlog Doc.xlsx
+++ b/SnakeGame/Documents/Backlog Doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztllo\OneDrive\Documents\GitHub\SnakeGame\SnakeGame\SnakeGame\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C734171-2D3C-4B89-93DC-85E44CFA5D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF89CC79-EA16-4472-9D96-55791B35F94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0798A988-65CE-47D7-AD9B-BC4317E77DAB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="78">
   <si>
     <t>Time Spent</t>
   </si>
@@ -266,16 +266,10 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Still in the Works</t>
-  </si>
-  <si>
     <t>Making the snake grow when the snake eats food</t>
   </si>
   <si>
     <t>Still in the work, will be wrapped up for final demo</t>
-  </si>
-  <si>
-    <t>Still in the works</t>
   </si>
 </sst>
 </file>
@@ -534,16 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="3" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,12 +540,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,6 +572,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
@@ -947,62 +941,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1261,22 +1255,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1285,18 +1279,18 @@
       <c r="B14" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1305,92 +1299,92 @@
       <c r="B15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="A13:N13"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
     <mergeCell ref="C17:L17"/>
     <mergeCell ref="C18:L18"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="A13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1450,61 +1444,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1520,8 +1514,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1560,11 +1554,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1612,8 +1606,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2092,22 +2086,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2116,18 +2110,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2136,87 +2130,81 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
     <mergeCell ref="A22:N22"/>
@@ -2224,6 +2212,12 @@
     <mergeCell ref="C24:L24"/>
     <mergeCell ref="C25:L25"/>
     <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2267,61 +2261,61 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -2337,8 +2331,8 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2377,11 +2371,11 @@
       <c r="L6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2873,22 +2867,22 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -2897,18 +2891,18 @@
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -2917,78 +2911,78 @@
       <c r="B24" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3014,7 +3008,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,61 +3026,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -3102,8 +3096,8 @@
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
     </row>
     <row r="5" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3142,11 +3136,11 @@
       <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -3226,11 +3220,11 @@
       <c r="J7" s="3">
         <v>18</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>79</v>
+      <c r="K7" s="20">
+        <v>43802</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>27</v>
@@ -3466,22 +3460,22 @@
       <c r="O12" s="25"/>
     </row>
     <row r="14" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="24"/>
     </row>
     <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -3512,10 +3506,10 @@
         <v>3.2</v>
       </c>
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
